--- a/raw/Plakate_1945-90_ImportCBS_Teil1.xlsx
+++ b/raw/Plakate_1945-90_ImportCBS_Teil1.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Blatt</t>
+    <t xml:space="preserve">1 ungezähltes Blatt</t>
   </si>
   <si>
     <t xml:space="preserve">Risse größer als 3 cm mit drohendem Materialverlust, Fehlstellen, stark brüchiges Papier</t>
@@ -213,7 +213,7 @@
     <t xml:space="preserve">1945-90/1007</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufhängespuren, Einstempelung auf Vorderseite</t>
+    <t xml:space="preserve">Aufhängespuren,  Einstempelung auf Vorderseite</t>
   </si>
   <si>
     <t xml:space="preserve">1945-90/1008</t>
@@ -336,7 +336,7 @@
     <t xml:space="preserve">1945-90/1018</t>
   </si>
   <si>
-    <t xml:space="preserve">Beziehung zu 1945-90/1019, 1945-90/1032, 1945-90/1033 (Ausschneidebogen)</t>
+    <t xml:space="preserve">Beziehung zu 1945-90/1019, 1945-90/1032, 1945-90/1033  (Ausschneidebogen)</t>
   </si>
   <si>
     <t xml:space="preserve">P68/85b</t>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">1945-90/1033</t>
   </si>
   <si>
-    <t xml:space="preserve">Beziehung zu 1945-90/1019, 1945-90/1032 (Ausschneidebogen)</t>
+    <t xml:space="preserve">Beziehung zu 1945-90/1019, 1945-90/1032  (Ausschneidebogen)</t>
   </si>
   <si>
     <t xml:space="preserve">P68/101</t>
@@ -2439,7 +2439,7 @@
     <t xml:space="preserve">1945-90/1264</t>
   </si>
   <si>
-    <t xml:space="preserve">Landkarte auf RS</t>
+    <t xml:space="preserve">Landkarte auf  RS</t>
   </si>
   <si>
     <t xml:space="preserve">P69/166</t>
@@ -2877,7 +2877,7 @@
     <t xml:space="preserve">14 Blätter</t>
   </si>
   <si>
-    <t xml:space="preserve">Mappenwerk; Faksimiles in Plastikfolie; 14 Objekte und 1 Umschlag mit Text</t>
+    <t xml:space="preserve">Mappenwerk; Faksimiles  in Plastikfolie; 14 Objekte und 1 Umschlag mit Text</t>
   </si>
   <si>
     <t xml:space="preserve">Ein Objekt im A-Format</t>
@@ -3003,7 +3003,7 @@
     <t xml:space="preserve">Serie mit Text und 33 Originalen; Beziehung zu 1322: große Ausgabe der Lenin-Serie</t>
   </si>
   <si>
-    <t xml:space="preserve">handschriftliche Notiz: Plakat 9 ausgeliehen nach Gotha: fehlt!</t>
+    <t xml:space="preserve">handschriftliche Notiz: Plakat 9  ausgeliehen nach Gotha: fehlt!</t>
   </si>
   <si>
     <t xml:space="preserve">1322,0-1 Riss &gt;3cm; 1322,34-1 Fehlstelle</t>
@@ -8466,7 +8466,7 @@
     <t xml:space="preserve">1945-90/786</t>
   </si>
   <si>
-    <t xml:space="preserve">handgeschrieben und handgezeichnet; diverse originale handschriftliche Unterschriften; Inhaltlicher Zusammenhang zwischen 785, 786 und 787 soll gewahrt werden </t>
+    <t xml:space="preserve">handgeschrieben und handgezeichnet; diverse originale handschriftliche Unterschriften;  Inhaltlicher Zusammenhang zwischen 785, 786 und 787 soll gewahrt werden </t>
   </si>
   <si>
     <t xml:space="preserve">P66/817</t>
@@ -8475,7 +8475,7 @@
     <t xml:space="preserve">1945-90/787</t>
   </si>
   <si>
-    <t xml:space="preserve">handgeschrieben und handgestaltete Wandzeitung; aufgeklebter Zeitungsartikel; diverse originale handschriftliche Unterschriften; Inhaltlicher Zusammenhang zwischen 785, 786 und 787 soll gewahrt werden </t>
+    <t xml:space="preserve">handgeschrieben und handgestaltete Wandzeitung; aufgeklebter Zeitungsartikel; diverse originale handschriftliche Unterschriften;  Inhaltlicher Zusammenhang zwischen 785, 786 und 787 soll gewahrt werden </t>
   </si>
   <si>
     <t xml:space="preserve">P66/818</t>
@@ -10127,7 +10127,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10166,6 +10166,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -10187,7 +10195,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10198,6 +10206,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -10381,74 +10395,74 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10456,11 +10470,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10472,27 +10486,27 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10520,31 +10534,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10552,15 +10566,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10568,19 +10582,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10588,71 +10602,71 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10675,7 +10689,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFC00000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -10735,10 +10749,10 @@
   </sheetPr>
   <dimension ref="A1:P1404"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.82421875" defaultRowHeight="7.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10758,7 +10772,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="9" width="12.82"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10777,22 +10791,22 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -23117,7 +23131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
         <v>15</v>
       </c>
@@ -23923,7 +23937,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="15" t="s">
         <v>15</v>
       </c>
@@ -26103,7 +26117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
         <v>15</v>
       </c>
@@ -26363,7 +26377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15" t="s">
         <v>15</v>
       </c>
@@ -27116,7 +27130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
         <v>15</v>
       </c>
@@ -27229,7 +27243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15" t="s">
         <v>15</v>
       </c>
@@ -27268,7 +27282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="15" t="s">
         <v>15</v>
       </c>
@@ -27305,7 +27319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
         <v>15</v>
       </c>
@@ -27378,7 +27392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
         <v>15</v>
       </c>
@@ -37805,7 +37819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="15" t="s">
         <v>15</v>
       </c>
@@ -40697,7 +40711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="15" t="s">
         <v>15</v>
       </c>

--- a/raw/Plakate_1945-90_ImportCBS_Teil1.xlsx
+++ b/raw/Plakate_1945-90_ImportCBS_Teil1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="3364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12637" uniqueCount="3362">
   <si>
     <t xml:space="preserve">IMD</t>
   </si>
@@ -9480,9 +9480,6 @@
     <t xml:space="preserve">P67/171</t>
   </si>
   <si>
-    <t xml:space="preserve">P68/14</t>
-  </si>
-  <si>
     <t xml:space="preserve">1945-90/915</t>
   </si>
   <si>
@@ -9976,9 +9973,6 @@
   </si>
   <si>
     <t xml:space="preserve">P68/43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P68/44</t>
   </si>
   <si>
     <t xml:space="preserve">1945-90/983</t>
@@ -10747,29 +10741,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1404"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A1341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1352" activeCellId="0" sqref="A1352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.82421875" defaultRowHeight="7.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83984375" defaultRowHeight="7.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="23.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="4" width="6.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="6" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="6" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="8.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="8" width="12.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="8" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="21.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="9" width="12.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="9" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57196,7 +57190,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1283" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1283" s="15" t="s">
         <v>15</v>
       </c>
@@ -57213,7 +57207,9 @@
         <v>19</v>
       </c>
       <c r="F1283" s="18"/>
-      <c r="H1283" s="19"/>
+      <c r="H1283" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="I1283" s="19"/>
       <c r="J1283" s="20"/>
       <c r="K1283" s="21"/>
@@ -57238,7 +57234,7 @@
         <v>1967</v>
       </c>
       <c r="C1284" s="23" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="D1284" s="15" t="s">
         <v>18</v>
@@ -57247,14 +57243,12 @@
         <v>19</v>
       </c>
       <c r="F1284" s="18"/>
-      <c r="H1284" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="H1284" s="19"/>
       <c r="I1284" s="19"/>
       <c r="J1284" s="20"/>
       <c r="K1284" s="21"/>
       <c r="L1284" s="22" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="M1284" s="8" t="s">
         <v>986</v>
@@ -57274,7 +57268,7 @@
         <v>1967</v>
       </c>
       <c r="C1285" s="23" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="D1285" s="15" t="s">
         <v>18</v>
@@ -57288,7 +57282,7 @@
       <c r="J1285" s="20"/>
       <c r="K1285" s="21"/>
       <c r="L1285" s="22" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="M1285" s="8" t="s">
         <v>986</v>
@@ -57300,7 +57294,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1286" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1286" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1286" s="15" t="s">
         <v>15</v>
       </c>
@@ -57308,10 +57302,10 @@
         <v>1967</v>
       </c>
       <c r="C1286" s="23" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="D1286" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1286" s="18" t="s">
         <v>19</v>
@@ -57319,10 +57313,12 @@
       <c r="F1286" s="18"/>
       <c r="H1286" s="19"/>
       <c r="I1286" s="19"/>
-      <c r="J1286" s="20"/>
+      <c r="J1286" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="K1286" s="21"/>
       <c r="L1286" s="22" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="M1286" s="8" t="s">
         <v>986</v>
@@ -57334,7 +57330,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1287" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1287" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="15" t="s">
         <v>15</v>
       </c>
@@ -57342,7 +57338,7 @@
         <v>1967</v>
       </c>
       <c r="C1287" s="23" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="D1287" s="15" t="s">
         <v>83</v>
@@ -57354,11 +57350,13 @@
       <c r="H1287" s="19"/>
       <c r="I1287" s="19"/>
       <c r="J1287" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1287" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="K1287" s="21" t="s">
+        <v>3158</v>
+      </c>
       <c r="L1287" s="22" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="M1287" s="8" t="s">
         <v>986</v>
@@ -57370,15 +57368,15 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1288" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1288" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1288" s="16" t="n">
-        <v>1967</v>
+      <c r="B1288" s="16" t="s">
+        <v>3160</v>
       </c>
       <c r="C1288" s="23" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="D1288" s="15" t="s">
         <v>83</v>
@@ -57389,14 +57387,10 @@
       <c r="F1288" s="18"/>
       <c r="H1288" s="19"/>
       <c r="I1288" s="19"/>
-      <c r="J1288" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1288" s="21" t="s">
-        <v>3159</v>
-      </c>
+      <c r="J1288" s="20"/>
+      <c r="K1288" s="21"/>
       <c r="L1288" s="22" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="M1288" s="8" t="s">
         <v>986</v>
@@ -57412,14 +57406,14 @@
       <c r="A1289" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1289" s="16" t="s">
-        <v>3161</v>
+      <c r="B1289" s="16" t="n">
+        <v>1955</v>
       </c>
       <c r="C1289" s="23" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="D1289" s="15" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E1289" s="18" t="s">
         <v>19</v>
@@ -57430,30 +57424,30 @@
       <c r="J1289" s="20"/>
       <c r="K1289" s="21"/>
       <c r="L1289" s="22" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="M1289" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1289" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1289" s="8" t="s">
-        <v>988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1290" s="16" t="n">
-        <v>1955</v>
+      <c r="B1290" s="16" t="s">
+        <v>3160</v>
       </c>
       <c r="C1290" s="23" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="D1290" s="15" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E1290" s="18" t="s">
         <v>19</v>
@@ -57464,16 +57458,16 @@
       <c r="J1290" s="20"/>
       <c r="K1290" s="21"/>
       <c r="L1290" s="22" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="M1290" s="8" t="s">
-        <v>28</v>
+        <v>986</v>
       </c>
       <c r="N1290" s="8" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="O1290" s="8" t="s">
-        <v>29</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57481,10 +57475,10 @@
         <v>15</v>
       </c>
       <c r="B1291" s="16" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C1291" s="23" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="D1291" s="15" t="s">
         <v>83</v>
@@ -57498,7 +57492,7 @@
       <c r="J1291" s="20"/>
       <c r="K1291" s="21"/>
       <c r="L1291" s="22" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="M1291" s="8" t="s">
         <v>986</v>
@@ -57515,10 +57509,10 @@
         <v>15</v>
       </c>
       <c r="B1292" s="16" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C1292" s="23" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="D1292" s="15" t="s">
         <v>83</v>
@@ -57532,7 +57526,7 @@
       <c r="J1292" s="20"/>
       <c r="K1292" s="21"/>
       <c r="L1292" s="22" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="M1292" s="8" t="s">
         <v>986</v>
@@ -57549,10 +57543,10 @@
         <v>15</v>
       </c>
       <c r="B1293" s="16" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C1293" s="23" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="D1293" s="15" t="s">
         <v>83</v>
@@ -57566,7 +57560,7 @@
       <c r="J1293" s="20"/>
       <c r="K1293" s="21"/>
       <c r="L1293" s="22" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="M1293" s="8" t="s">
         <v>986</v>
@@ -57582,14 +57576,14 @@
       <c r="A1294" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1294" s="16" t="s">
-        <v>3161</v>
+      <c r="B1294" s="16" t="n">
+        <v>1967</v>
       </c>
       <c r="C1294" s="23" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="D1294" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E1294" s="18" t="s">
         <v>19</v>
@@ -57600,7 +57594,7 @@
       <c r="J1294" s="20"/>
       <c r="K1294" s="21"/>
       <c r="L1294" s="22" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="M1294" s="8" t="s">
         <v>986</v>
@@ -57620,7 +57614,7 @@
         <v>1967</v>
       </c>
       <c r="C1295" s="23" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="D1295" s="15" t="s">
         <v>18</v>
@@ -57634,7 +57628,7 @@
       <c r="J1295" s="20"/>
       <c r="K1295" s="21"/>
       <c r="L1295" s="22" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="M1295" s="8" t="s">
         <v>986</v>
@@ -57654,7 +57648,7 @@
         <v>1967</v>
       </c>
       <c r="C1296" s="23" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="D1296" s="15" t="s">
         <v>18</v>
@@ -57668,7 +57662,7 @@
       <c r="J1296" s="20"/>
       <c r="K1296" s="21"/>
       <c r="L1296" s="22" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="M1296" s="8" t="s">
         <v>986</v>
@@ -57685,10 +57679,10 @@
         <v>15</v>
       </c>
       <c r="B1297" s="16" t="n">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="C1297" s="23" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="D1297" s="15" t="s">
         <v>18</v>
@@ -57702,7 +57696,7 @@
       <c r="J1297" s="20"/>
       <c r="K1297" s="21"/>
       <c r="L1297" s="22" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="M1297" s="8" t="s">
         <v>986</v>
@@ -57714,15 +57708,15 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1298" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B1298" s="16" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C1298" s="23" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="D1298" s="15" t="s">
         <v>18</v>
@@ -57733,10 +57727,12 @@
       <c r="F1298" s="18"/>
       <c r="H1298" s="19"/>
       <c r="I1298" s="19"/>
-      <c r="J1298" s="20"/>
+      <c r="J1298" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="K1298" s="21"/>
       <c r="L1298" s="22" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="M1298" s="8" t="s">
         <v>986</v>
@@ -57753,10 +57749,10 @@
         <v>15</v>
       </c>
       <c r="B1299" s="16" t="n">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C1299" s="23" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="D1299" s="15" t="s">
         <v>18</v>
@@ -57772,7 +57768,7 @@
       </c>
       <c r="K1299" s="21"/>
       <c r="L1299" s="22" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="M1299" s="8" t="s">
         <v>986</v>
@@ -57788,75 +57784,73 @@
       <c r="A1300" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1300" s="16" t="n">
-        <v>1966</v>
+      <c r="B1300" s="16" t="s">
+        <v>1267</v>
       </c>
       <c r="C1300" s="23" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D1300" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1300" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1300" s="18"/>
+      <c r="G1300" s="5" t="s">
+        <v>3186</v>
+      </c>
       <c r="H1300" s="19"/>
       <c r="I1300" s="19"/>
       <c r="J1300" s="20" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="K1300" s="21"/>
       <c r="L1300" s="22" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="M1300" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1300" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1300" s="8" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1301" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1301" s="16" t="s">
-        <v>1267</v>
+      <c r="B1301" s="16" t="n">
+        <v>1967</v>
       </c>
       <c r="C1301" s="23" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="D1301" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1301" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1301" s="18"/>
-      <c r="G1301" s="5" t="s">
-        <v>3187</v>
-      </c>
       <c r="H1301" s="19"/>
       <c r="I1301" s="19"/>
-      <c r="J1301" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="J1301" s="20"/>
       <c r="K1301" s="21"/>
       <c r="L1301" s="22" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="M1301" s="8" t="s">
-        <v>28</v>
+        <v>986</v>
       </c>
       <c r="N1301" s="8" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="O1301" s="8" t="s">
-        <v>29</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57867,7 +57861,7 @@
         <v>1967</v>
       </c>
       <c r="C1302" s="23" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="D1302" s="15" t="s">
         <v>18</v>
@@ -57881,7 +57875,7 @@
       <c r="J1302" s="20"/>
       <c r="K1302" s="21"/>
       <c r="L1302" s="22" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="M1302" s="8" t="s">
         <v>986</v>
@@ -57898,10 +57892,10 @@
         <v>15</v>
       </c>
       <c r="B1303" s="16" t="n">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="C1303" s="23" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="D1303" s="15" t="s">
         <v>18</v>
@@ -57915,7 +57909,7 @@
       <c r="J1303" s="20"/>
       <c r="K1303" s="21"/>
       <c r="L1303" s="22" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="M1303" s="8" t="s">
         <v>986</v>
@@ -57932,10 +57926,10 @@
         <v>15</v>
       </c>
       <c r="B1304" s="16" t="n">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C1304" s="23" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="D1304" s="15" t="s">
         <v>18</v>
@@ -57949,7 +57943,7 @@
       <c r="J1304" s="20"/>
       <c r="K1304" s="21"/>
       <c r="L1304" s="22" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="M1304" s="8" t="s">
         <v>986</v>
@@ -57965,11 +57959,11 @@
       <c r="A1305" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1305" s="16" t="n">
-        <v>1966</v>
+      <c r="B1305" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C1305" s="23" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="D1305" s="15" t="s">
         <v>18</v>
@@ -57983,7 +57977,7 @@
       <c r="J1305" s="20"/>
       <c r="K1305" s="21"/>
       <c r="L1305" s="22" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="M1305" s="8" t="s">
         <v>986</v>
@@ -57999,11 +57993,11 @@
       <c r="A1306" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1306" s="16" t="s">
-        <v>223</v>
+      <c r="B1306" s="16" t="n">
+        <v>1967</v>
       </c>
       <c r="C1306" s="23" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D1306" s="15" t="s">
         <v>18</v>
@@ -58017,7 +58011,7 @@
       <c r="J1306" s="20"/>
       <c r="K1306" s="21"/>
       <c r="L1306" s="22" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="M1306" s="8" t="s">
         <v>986</v>
@@ -58037,7 +58031,7 @@
         <v>1967</v>
       </c>
       <c r="C1307" s="23" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="D1307" s="15" t="s">
         <v>18</v>
@@ -58051,7 +58045,7 @@
       <c r="J1307" s="20"/>
       <c r="K1307" s="21"/>
       <c r="L1307" s="22" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="M1307" s="8" t="s">
         <v>986</v>
@@ -58071,7 +58065,7 @@
         <v>1967</v>
       </c>
       <c r="C1308" s="23" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D1308" s="15" t="s">
         <v>18</v>
@@ -58085,7 +58079,7 @@
       <c r="J1308" s="20"/>
       <c r="K1308" s="21"/>
       <c r="L1308" s="22" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="M1308" s="8" t="s">
         <v>986</v>
@@ -58102,13 +58096,13 @@
         <v>15</v>
       </c>
       <c r="B1309" s="16" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1309" s="23" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="D1309" s="15" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E1309" s="18" t="s">
         <v>19</v>
@@ -58119,7 +58113,7 @@
       <c r="J1309" s="20"/>
       <c r="K1309" s="21"/>
       <c r="L1309" s="22" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="M1309" s="8" t="s">
         <v>986</v>
@@ -58139,10 +58133,10 @@
         <v>1966</v>
       </c>
       <c r="C1310" s="23" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D1310" s="15" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E1310" s="18" t="s">
         <v>19</v>
@@ -58153,7 +58147,7 @@
       <c r="J1310" s="20"/>
       <c r="K1310" s="21"/>
       <c r="L1310" s="22" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="M1310" s="8" t="s">
         <v>986</v>
@@ -58170,13 +58164,13 @@
         <v>15</v>
       </c>
       <c r="B1311" s="16" t="n">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="C1311" s="23" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D1311" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1311" s="18" t="s">
         <v>19</v>
@@ -58184,19 +58178,21 @@
       <c r="F1311" s="18"/>
       <c r="H1311" s="19"/>
       <c r="I1311" s="19"/>
-      <c r="J1311" s="20"/>
+      <c r="J1311" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="K1311" s="21"/>
       <c r="L1311" s="22" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="M1311" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1311" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1311" s="8" t="s">
-        <v>988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58204,62 +58200,62 @@
         <v>15</v>
       </c>
       <c r="B1312" s="16" t="n">
-        <v>1954</v>
+        <v>1965</v>
       </c>
       <c r="C1312" s="23" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D1312" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1312" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1312" s="18"/>
-      <c r="H1312" s="19"/>
-      <c r="I1312" s="19"/>
-      <c r="J1312" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="H1312" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1312" s="20"/>
+      <c r="J1312" s="20"/>
       <c r="K1312" s="21"/>
       <c r="L1312" s="22" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="M1312" s="8" t="s">
-        <v>28</v>
+        <v>986</v>
       </c>
       <c r="N1312" s="8" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="O1312" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1313" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1313" s="15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B1313" s="16" t="n">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C1313" s="23" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D1313" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1313" s="18" t="s">
-        <v>19</v>
+        <v>887</v>
       </c>
       <c r="F1313" s="18"/>
-      <c r="H1313" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1313" s="20"/>
+      <c r="H1313" s="5" t="s">
+        <v>3213</v>
+      </c>
+      <c r="I1313" s="5"/>
       <c r="J1313" s="20"/>
       <c r="K1313" s="21"/>
       <c r="L1313" s="22" t="s">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="M1313" s="8" t="s">
         <v>986</v>
@@ -58271,31 +58267,31 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1314" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1314" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1314" s="16" t="n">
-        <v>1966</v>
+        <v>15</v>
+      </c>
+      <c r="B1314" s="16" t="s">
+        <v>3160</v>
       </c>
       <c r="C1314" s="23" t="s">
-        <v>3213</v>
+        <v>3215</v>
       </c>
       <c r="D1314" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E1314" s="18" t="s">
-        <v>887</v>
+        <v>19</v>
       </c>
       <c r="F1314" s="18"/>
-      <c r="H1314" s="5" t="s">
-        <v>3214</v>
-      </c>
-      <c r="I1314" s="5"/>
+      <c r="H1314" s="19" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I1314" s="19"/>
       <c r="J1314" s="20"/>
       <c r="K1314" s="21"/>
       <c r="L1314" s="22" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="M1314" s="8" t="s">
         <v>986</v>
@@ -58307,31 +58303,29 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1315" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1315" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1315" s="16" t="s">
-        <v>3161</v>
+      <c r="B1315" s="16" t="n">
+        <v>1967</v>
       </c>
       <c r="C1315" s="23" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="D1315" s="15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E1315" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1315" s="18"/>
-      <c r="H1315" s="19" t="s">
-        <v>3217</v>
-      </c>
+      <c r="H1315" s="19"/>
       <c r="I1315" s="19"/>
       <c r="J1315" s="20"/>
       <c r="K1315" s="21"/>
       <c r="L1315" s="22" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="M1315" s="8" t="s">
         <v>986</v>
@@ -58351,10 +58345,10 @@
         <v>1967</v>
       </c>
       <c r="C1316" s="23" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="D1316" s="15" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E1316" s="18" t="s">
         <v>19</v>
@@ -58365,7 +58359,7 @@
       <c r="J1316" s="20"/>
       <c r="K1316" s="21"/>
       <c r="L1316" s="22" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="M1316" s="8" t="s">
         <v>986</v>
@@ -58377,7 +58371,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1317" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1317" s="15" t="s">
         <v>15</v>
       </c>
@@ -58385,7 +58379,7 @@
         <v>1967</v>
       </c>
       <c r="C1317" s="23" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="D1317" s="15" t="s">
         <v>18</v>
@@ -58396,10 +58390,14 @@
       <c r="F1317" s="18"/>
       <c r="H1317" s="19"/>
       <c r="I1317" s="19"/>
-      <c r="J1317" s="20"/>
-      <c r="K1317" s="21"/>
+      <c r="J1317" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1317" s="21" t="s">
+        <v>3223</v>
+      </c>
       <c r="L1317" s="22" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="M1317" s="8" t="s">
         <v>986</v>
@@ -58411,7 +58409,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1318" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="15" t="s">
         <v>15</v>
       </c>
@@ -58419,7 +58417,7 @@
         <v>1967</v>
       </c>
       <c r="C1318" s="23" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="D1318" s="15" t="s">
         <v>18</v>
@@ -58430,14 +58428,10 @@
       <c r="F1318" s="18"/>
       <c r="H1318" s="19"/>
       <c r="I1318" s="19"/>
-      <c r="J1318" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1318" s="21" t="s">
-        <v>3224</v>
-      </c>
+      <c r="J1318" s="20"/>
+      <c r="K1318" s="21"/>
       <c r="L1318" s="22" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="M1318" s="8" t="s">
         <v>986</v>
@@ -58457,7 +58451,7 @@
         <v>1967</v>
       </c>
       <c r="C1319" s="23" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="D1319" s="15" t="s">
         <v>18</v>
@@ -58471,7 +58465,7 @@
       <c r="J1319" s="20"/>
       <c r="K1319" s="21"/>
       <c r="L1319" s="22" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="M1319" s="8" t="s">
         <v>986</v>
@@ -58491,7 +58485,7 @@
         <v>1967</v>
       </c>
       <c r="C1320" s="23" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="D1320" s="15" t="s">
         <v>18</v>
@@ -58505,7 +58499,7 @@
       <c r="J1320" s="20"/>
       <c r="K1320" s="21"/>
       <c r="L1320" s="22" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="M1320" s="8" t="s">
         <v>986</v>
@@ -58525,7 +58519,7 @@
         <v>1967</v>
       </c>
       <c r="C1321" s="23" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="D1321" s="15" t="s">
         <v>18</v>
@@ -58539,7 +58533,7 @@
       <c r="J1321" s="20"/>
       <c r="K1321" s="21"/>
       <c r="L1321" s="22" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="M1321" s="8" t="s">
         <v>986</v>
@@ -58556,13 +58550,13 @@
         <v>15</v>
       </c>
       <c r="B1322" s="16" t="n">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="C1322" s="23" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D1322" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1322" s="18" t="s">
         <v>19</v>
@@ -58570,33 +58564,35 @@
       <c r="F1322" s="18"/>
       <c r="H1322" s="19"/>
       <c r="I1322" s="19"/>
-      <c r="J1322" s="20"/>
+      <c r="J1322" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="K1322" s="21"/>
       <c r="L1322" s="22" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="M1322" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1322" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1322" s="8" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1323" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B1323" s="16" t="n">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="C1323" s="23" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="D1323" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1323" s="18" t="s">
         <v>19</v>
@@ -58605,23 +58601,25 @@
       <c r="H1323" s="19"/>
       <c r="I1323" s="19"/>
       <c r="J1323" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1323" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="K1323" s="21" t="s">
+        <v>3236</v>
+      </c>
       <c r="L1323" s="22" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="M1323" s="8" t="s">
-        <v>28</v>
+        <v>986</v>
       </c>
       <c r="N1323" s="8" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="O1323" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1324" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="15" t="s">
         <v>15</v>
       </c>
@@ -58629,7 +58627,7 @@
         <v>1967</v>
       </c>
       <c r="C1324" s="23" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="D1324" s="15" t="s">
         <v>18</v>
@@ -58641,13 +58639,11 @@
       <c r="H1324" s="19"/>
       <c r="I1324" s="19"/>
       <c r="J1324" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1324" s="21" t="s">
-        <v>3237</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1324" s="21"/>
       <c r="L1324" s="22" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="M1324" s="8" t="s">
         <v>986</v>
@@ -58659,18 +58655,18 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1325" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1325" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B1325" s="16" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1325" s="23" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D1325" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1325" s="18" t="s">
         <v>19</v>
@@ -58678,12 +58674,10 @@
       <c r="F1325" s="18"/>
       <c r="H1325" s="19"/>
       <c r="I1325" s="19"/>
-      <c r="J1325" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="J1325" s="20"/>
       <c r="K1325" s="21"/>
       <c r="L1325" s="22" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="M1325" s="8" t="s">
         <v>986</v>
@@ -58700,13 +58694,13 @@
         <v>15</v>
       </c>
       <c r="B1326" s="16" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C1326" s="23" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="D1326" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E1326" s="18" t="s">
         <v>19</v>
@@ -58717,7 +58711,7 @@
       <c r="J1326" s="20"/>
       <c r="K1326" s="21"/>
       <c r="L1326" s="22" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="M1326" s="8" t="s">
         <v>986</v>
@@ -58734,10 +58728,10 @@
         <v>15</v>
       </c>
       <c r="B1327" s="16" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1327" s="23" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="D1327" s="15" t="s">
         <v>18</v>
@@ -58751,7 +58745,7 @@
       <c r="J1327" s="20"/>
       <c r="K1327" s="21"/>
       <c r="L1327" s="22" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="M1327" s="8" t="s">
         <v>986</v>
@@ -58771,7 +58765,7 @@
         <v>1966</v>
       </c>
       <c r="C1328" s="23" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="D1328" s="15" t="s">
         <v>18</v>
@@ -58785,7 +58779,7 @@
       <c r="J1328" s="20"/>
       <c r="K1328" s="21"/>
       <c r="L1328" s="22" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="M1328" s="8" t="s">
         <v>986</v>
@@ -58802,10 +58796,10 @@
         <v>15</v>
       </c>
       <c r="B1329" s="16" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C1329" s="23" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="D1329" s="15" t="s">
         <v>18</v>
@@ -58819,7 +58813,7 @@
       <c r="J1329" s="20"/>
       <c r="K1329" s="21"/>
       <c r="L1329" s="22" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="M1329" s="8" t="s">
         <v>986</v>
@@ -58839,7 +58833,7 @@
         <v>1967</v>
       </c>
       <c r="C1330" s="23" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="D1330" s="15" t="s">
         <v>18</v>
@@ -58853,7 +58847,7 @@
       <c r="J1330" s="20"/>
       <c r="K1330" s="21"/>
       <c r="L1330" s="22" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="M1330" s="8" t="s">
         <v>986</v>
@@ -58873,7 +58867,7 @@
         <v>1967</v>
       </c>
       <c r="C1331" s="23" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="D1331" s="15" t="s">
         <v>18</v>
@@ -58887,7 +58881,7 @@
       <c r="J1331" s="20"/>
       <c r="K1331" s="21"/>
       <c r="L1331" s="22" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="M1331" s="8" t="s">
         <v>986</v>
@@ -58899,7 +58893,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1332" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="15" t="s">
         <v>15</v>
       </c>
@@ -58907,7 +58901,7 @@
         <v>1967</v>
       </c>
       <c r="C1332" s="23" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="D1332" s="15" t="s">
         <v>18</v>
@@ -58918,10 +58912,12 @@
       <c r="F1332" s="18"/>
       <c r="H1332" s="19"/>
       <c r="I1332" s="19"/>
-      <c r="J1332" s="20"/>
+      <c r="J1332" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="K1332" s="21"/>
       <c r="L1332" s="22" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="M1332" s="8" t="s">
         <v>986</v>
@@ -58933,18 +58929,18 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1333" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1333" s="16" t="n">
-        <v>1967</v>
+      <c r="B1333" s="16" t="s">
+        <v>1631</v>
       </c>
       <c r="C1333" s="23" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="D1333" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1333" s="18" t="s">
         <v>19</v>
@@ -58953,59 +58949,62 @@
       <c r="H1333" s="19"/>
       <c r="I1333" s="19"/>
       <c r="J1333" s="20" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="K1333" s="21"/>
       <c r="L1333" s="22" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="M1333" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1333" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1333" s="8" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1334" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1334" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1334" s="16" t="s">
-        <v>1631</v>
+      <c r="B1334" s="16" t="n">
+        <v>1967</v>
       </c>
       <c r="C1334" s="23" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="D1334" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1334" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1334" s="18"/>
-      <c r="H1334" s="19"/>
+      <c r="G1334" s="5" t="s">
+        <v>3259</v>
+      </c>
+      <c r="H1334" s="19" t="s">
+        <v>3260</v>
+      </c>
       <c r="I1334" s="19"/>
-      <c r="J1334" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="J1334" s="20"/>
       <c r="K1334" s="21"/>
       <c r="L1334" s="22" t="s">
-        <v>3258</v>
+        <v>3261</v>
       </c>
       <c r="M1334" s="8" t="s">
-        <v>28</v>
+        <v>986</v>
       </c>
       <c r="N1334" s="8" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="O1334" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1335" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1335" s="15" t="s">
         <v>15</v>
       </c>
@@ -59013,7 +59012,7 @@
         <v>1967</v>
       </c>
       <c r="C1335" s="23" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="D1335" s="15" t="s">
         <v>18</v>
@@ -59022,17 +59021,14 @@
         <v>19</v>
       </c>
       <c r="F1335" s="18"/>
-      <c r="G1335" s="5" t="s">
+      <c r="H1335" s="19" t="s">
         <v>3260</v>
-      </c>
-      <c r="H1335" s="19" t="s">
-        <v>3261</v>
       </c>
       <c r="I1335" s="19"/>
       <c r="J1335" s="20"/>
       <c r="K1335" s="21"/>
       <c r="L1335" s="22" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="M1335" s="8" t="s">
         <v>986</v>
@@ -59052,7 +59048,7 @@
         <v>1967</v>
       </c>
       <c r="C1336" s="23" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="D1336" s="15" t="s">
         <v>18</v>
@@ -59062,13 +59058,13 @@
       </c>
       <c r="F1336" s="18"/>
       <c r="H1336" s="19" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="I1336" s="19"/>
       <c r="J1336" s="20"/>
       <c r="K1336" s="21"/>
       <c r="L1336" s="22" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="M1336" s="8" t="s">
         <v>986</v>
@@ -59088,7 +59084,7 @@
         <v>1967</v>
       </c>
       <c r="C1337" s="23" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D1337" s="15" t="s">
         <v>18</v>
@@ -59098,13 +59094,13 @@
       </c>
       <c r="F1337" s="18"/>
       <c r="H1337" s="19" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="I1337" s="19"/>
       <c r="J1337" s="20"/>
       <c r="K1337" s="21"/>
       <c r="L1337" s="22" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="M1337" s="8" t="s">
         <v>986</v>
@@ -59124,7 +59120,7 @@
         <v>1967</v>
       </c>
       <c r="C1338" s="23" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="D1338" s="15" t="s">
         <v>18</v>
@@ -59134,13 +59130,13 @@
       </c>
       <c r="F1338" s="18"/>
       <c r="H1338" s="19" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="I1338" s="19"/>
       <c r="J1338" s="20"/>
       <c r="K1338" s="21"/>
       <c r="L1338" s="22" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="M1338" s="8" t="s">
         <v>986</v>
@@ -59157,26 +59153,28 @@
         <v>15</v>
       </c>
       <c r="B1339" s="16" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1339" s="23" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="D1339" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1339" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1339" s="18"/>
-      <c r="H1339" s="19" t="s">
-        <v>3261</v>
-      </c>
-      <c r="I1339" s="19"/>
-      <c r="J1339" s="20"/>
-      <c r="K1339" s="21"/>
+      <c r="H1339" s="5"/>
+      <c r="I1339" s="5"/>
+      <c r="J1339" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1339" s="32" t="s">
+        <v>3271</v>
+      </c>
       <c r="L1339" s="22" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="M1339" s="8" t="s">
         <v>986</v>
@@ -59193,10 +59191,10 @@
         <v>15</v>
       </c>
       <c r="B1340" s="16" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C1340" s="23" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="D1340" s="15" t="s">
         <v>83</v>
@@ -59205,16 +59203,14 @@
         <v>19</v>
       </c>
       <c r="F1340" s="18"/>
-      <c r="H1340" s="5"/>
-      <c r="I1340" s="5"/>
+      <c r="H1340" s="19"/>
+      <c r="I1340" s="19"/>
       <c r="J1340" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1340" s="32" t="s">
-        <v>3272</v>
-      </c>
+        <v>2925</v>
+      </c>
+      <c r="K1340" s="21"/>
       <c r="L1340" s="22" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="M1340" s="8" t="s">
         <v>986</v>
@@ -59234,10 +59230,10 @@
         <v>1967</v>
       </c>
       <c r="C1341" s="23" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="D1341" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E1341" s="18" t="s">
         <v>19</v>
@@ -59246,11 +59242,11 @@
       <c r="H1341" s="19"/>
       <c r="I1341" s="19"/>
       <c r="J1341" s="20" t="s">
-        <v>2925</v>
+        <v>116</v>
       </c>
       <c r="K1341" s="21"/>
       <c r="L1341" s="22" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="M1341" s="8" t="s">
         <v>986</v>
@@ -59262,7 +59258,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1342" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="15" t="s">
         <v>15</v>
       </c>
@@ -59270,7 +59266,7 @@
         <v>1967</v>
       </c>
       <c r="C1342" s="23" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="D1342" s="15" t="s">
         <v>18</v>
@@ -59281,12 +59277,10 @@
       <c r="F1342" s="18"/>
       <c r="H1342" s="19"/>
       <c r="I1342" s="19"/>
-      <c r="J1342" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="J1342" s="20"/>
       <c r="K1342" s="21"/>
       <c r="L1342" s="22" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="M1342" s="8" t="s">
         <v>986</v>
@@ -59303,10 +59297,10 @@
         <v>15</v>
       </c>
       <c r="B1343" s="16" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1343" s="23" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="D1343" s="15" t="s">
         <v>18</v>
@@ -59320,7 +59314,7 @@
       <c r="J1343" s="20"/>
       <c r="K1343" s="21"/>
       <c r="L1343" s="22" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="M1343" s="8" t="s">
         <v>986</v>
@@ -59337,13 +59331,13 @@
         <v>15</v>
       </c>
       <c r="B1344" s="16" t="n">
-        <v>1966</v>
+        <v>1952</v>
       </c>
       <c r="C1344" s="23" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="D1344" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1344" s="18" t="s">
         <v>19</v>
@@ -59354,16 +59348,16 @@
       <c r="J1344" s="20"/>
       <c r="K1344" s="21"/>
       <c r="L1344" s="22" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="M1344" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1344" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1344" s="8" t="s">
-        <v>988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59371,13 +59365,13 @@
         <v>15</v>
       </c>
       <c r="B1345" s="16" t="n">
-        <v>1952</v>
+        <v>1967</v>
       </c>
       <c r="C1345" s="23" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="D1345" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1345" s="18" t="s">
         <v>19</v>
@@ -59388,16 +59382,16 @@
       <c r="J1345" s="20"/>
       <c r="K1345" s="21"/>
       <c r="L1345" s="22" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="M1345" s="8" t="s">
-        <v>28</v>
+        <v>986</v>
       </c>
       <c r="N1345" s="8" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="O1345" s="8" t="s">
-        <v>29</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1346" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59408,7 +59402,7 @@
         <v>1967</v>
       </c>
       <c r="C1346" s="23" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="D1346" s="15" t="s">
         <v>18</v>
@@ -59422,7 +59416,7 @@
       <c r="J1346" s="20"/>
       <c r="K1346" s="21"/>
       <c r="L1346" s="22" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="M1346" s="8" t="s">
         <v>986</v>
@@ -59442,7 +59436,7 @@
         <v>1967</v>
       </c>
       <c r="C1347" s="23" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1347" s="15" t="s">
         <v>18</v>
@@ -59456,7 +59450,7 @@
       <c r="J1347" s="20"/>
       <c r="K1347" s="21"/>
       <c r="L1347" s="22" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="M1347" s="8" t="s">
         <v>986</v>
@@ -59468,7 +59462,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1348" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="15" t="s">
         <v>15</v>
       </c>
@@ -59476,10 +59470,10 @@
         <v>1967</v>
       </c>
       <c r="C1348" s="23" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="D1348" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1348" s="18" t="s">
         <v>19</v>
@@ -59487,10 +59481,12 @@
       <c r="F1348" s="18"/>
       <c r="H1348" s="19"/>
       <c r="I1348" s="19"/>
-      <c r="J1348" s="20"/>
-      <c r="K1348" s="21"/>
+      <c r="J1348" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1348" s="29"/>
       <c r="L1348" s="22" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="M1348" s="8" t="s">
         <v>986</v>
@@ -59502,7 +59498,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1349" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="15" t="s">
         <v>15</v>
       </c>
@@ -59510,7 +59506,7 @@
         <v>1967</v>
       </c>
       <c r="C1349" s="23" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="D1349" s="15" t="s">
         <v>83</v>
@@ -59519,14 +59515,18 @@
         <v>19</v>
       </c>
       <c r="F1349" s="18"/>
-      <c r="H1349" s="19"/>
+      <c r="H1349" s="19" t="s">
+        <v>3292</v>
+      </c>
       <c r="I1349" s="19"/>
       <c r="J1349" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1349" s="29"/>
+        <v>3293</v>
+      </c>
+      <c r="K1349" s="29" t="s">
+        <v>3294</v>
+      </c>
       <c r="L1349" s="22" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="M1349" s="8" t="s">
         <v>986</v>
@@ -59538,7 +59538,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1350" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1350" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1350" s="15" t="s">
         <v>15</v>
       </c>
@@ -59546,7 +59546,7 @@
         <v>1967</v>
       </c>
       <c r="C1350" s="23" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="D1350" s="15" t="s">
         <v>83</v>
@@ -59555,18 +59555,16 @@
         <v>19</v>
       </c>
       <c r="F1350" s="18"/>
-      <c r="H1350" s="19" t="s">
-        <v>3293</v>
-      </c>
+      <c r="H1350" s="19"/>
       <c r="I1350" s="19"/>
       <c r="J1350" s="20" t="s">
-        <v>3294</v>
-      </c>
-      <c r="K1350" s="29" t="s">
-        <v>3295</v>
+        <v>3297</v>
+      </c>
+      <c r="K1350" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="L1350" s="22" t="s">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="M1350" s="8" t="s">
         <v>986</v>
@@ -59578,15 +59576,15 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1351" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1351" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1351" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B1351" s="16" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C1351" s="23" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="D1351" s="15" t="s">
         <v>83</v>
@@ -59597,26 +59595,22 @@
       <c r="F1351" s="18"/>
       <c r="H1351" s="19"/>
       <c r="I1351" s="19"/>
-      <c r="J1351" s="20" t="s">
-        <v>3298</v>
-      </c>
-      <c r="K1351" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1351" s="22" t="s">
-        <v>3299</v>
+      <c r="J1351" s="20"/>
+      <c r="K1351" s="29"/>
+      <c r="L1351" s="24" t="s">
+        <v>3300</v>
       </c>
       <c r="M1351" s="8" t="s">
-        <v>986</v>
+        <v>28</v>
       </c>
       <c r="N1351" s="8" t="s">
-        <v>987</v>
+        <v>23</v>
       </c>
       <c r="O1351" s="8" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1352" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1352" s="15" t="s">
         <v>15</v>
       </c>
@@ -59624,7 +59618,7 @@
         <v>1968</v>
       </c>
       <c r="C1352" s="23" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="D1352" s="15" t="s">
         <v>83</v>
@@ -59635,10 +59629,12 @@
       <c r="F1352" s="18"/>
       <c r="H1352" s="19"/>
       <c r="I1352" s="19"/>
-      <c r="J1352" s="20"/>
+      <c r="J1352" s="20" t="s">
+        <v>746</v>
+      </c>
       <c r="K1352" s="29"/>
       <c r="L1352" s="24" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="M1352" s="8" t="s">
         <v>28</v>
@@ -59650,15 +59646,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1353" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1353" s="15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B1353" s="16" t="n">
         <v>1968</v>
       </c>
       <c r="C1353" s="23" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="D1353" s="15" t="s">
         <v>83</v>
@@ -59670,11 +59666,11 @@
       <c r="H1353" s="19"/>
       <c r="I1353" s="19"/>
       <c r="J1353" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="K1353" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="K1353" s="21"/>
       <c r="L1353" s="24" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="M1353" s="8" t="s">
         <v>28</v>
@@ -59686,7 +59682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1354" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1354" s="15" t="s">
         <v>30</v>
       </c>
@@ -59694,7 +59690,7 @@
         <v>1968</v>
       </c>
       <c r="C1354" s="23" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="D1354" s="15" t="s">
         <v>83</v>
@@ -59706,11 +59702,11 @@
       <c r="H1354" s="19"/>
       <c r="I1354" s="19"/>
       <c r="J1354" s="20" t="s">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="K1354" s="21"/>
       <c r="L1354" s="24" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="M1354" s="8" t="s">
         <v>28</v>
@@ -59722,18 +59718,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1355" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1355" s="15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B1355" s="16" t="n">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="C1355" s="23" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="D1355" s="15" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E1355" s="18" t="s">
         <v>19</v>
@@ -59742,11 +59738,11 @@
       <c r="H1355" s="19"/>
       <c r="I1355" s="19"/>
       <c r="J1355" s="20" t="s">
-        <v>446</v>
+        <v>116</v>
       </c>
       <c r="K1355" s="21"/>
-      <c r="L1355" s="24" t="s">
-        <v>3307</v>
+      <c r="L1355" s="22" t="s">
+        <v>3308</v>
       </c>
       <c r="M1355" s="8" t="s">
         <v>28</v>
@@ -59763,13 +59759,13 @@
         <v>15</v>
       </c>
       <c r="B1356" s="16" t="n">
-        <v>1955</v>
+        <v>1968</v>
       </c>
       <c r="C1356" s="23" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="D1356" s="15" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E1356" s="18" t="s">
         <v>19</v>
@@ -59778,11 +59774,11 @@
       <c r="H1356" s="19"/>
       <c r="I1356" s="19"/>
       <c r="J1356" s="20" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K1356" s="21"/>
-      <c r="L1356" s="22" t="s">
-        <v>3309</v>
+      <c r="L1356" s="24" t="s">
+        <v>3310</v>
       </c>
       <c r="M1356" s="8" t="s">
         <v>28</v>
@@ -59794,15 +59790,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1357" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1357" s="15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B1357" s="16" t="n">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C1357" s="23" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="D1357" s="15" t="s">
         <v>83</v>
@@ -59814,11 +59810,11 @@
       <c r="H1357" s="19"/>
       <c r="I1357" s="19"/>
       <c r="J1357" s="20" t="s">
-        <v>80</v>
+        <v>3312</v>
       </c>
       <c r="K1357" s="21"/>
       <c r="L1357" s="24" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="M1357" s="8" t="s">
         <v>28</v>
@@ -59830,31 +59826,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1358" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1358" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B1358" s="16" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C1358" s="23" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="D1358" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E1358" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1358" s="18"/>
-      <c r="H1358" s="19"/>
+      <c r="H1358" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="I1358" s="19"/>
-      <c r="J1358" s="20" t="s">
-        <v>3313</v>
-      </c>
+      <c r="J1358" s="20"/>
       <c r="K1358" s="21"/>
       <c r="L1358" s="24" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="M1358" s="8" t="s">
         <v>28</v>
@@ -59866,7 +59862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1359" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1359" s="15" t="s">
         <v>15</v>
       </c>
@@ -59874,23 +59870,23 @@
         <v>1968</v>
       </c>
       <c r="C1359" s="23" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="D1359" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1359" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1359" s="18"/>
-      <c r="H1359" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="H1359" s="19"/>
       <c r="I1359" s="19"/>
-      <c r="J1359" s="20"/>
-      <c r="K1359" s="21"/>
+      <c r="J1359" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1359" s="29"/>
       <c r="L1359" s="24" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="M1359" s="8" t="s">
         <v>28</v>
@@ -59910,7 +59906,7 @@
         <v>1968</v>
       </c>
       <c r="C1360" s="23" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
       <c r="D1360" s="15" t="s">
         <v>18</v>
@@ -59920,13 +59916,13 @@
       </c>
       <c r="F1360" s="18"/>
       <c r="H1360" s="19" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I1360" s="19"/>
       <c r="J1360" s="20"/>
-      <c r="K1360" s="21"/>
+      <c r="K1360" s="29"/>
       <c r="L1360" s="24" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="M1360" s="8" t="s">
         <v>28</v>
@@ -59938,7 +59934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1361" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="15" t="s">
         <v>15</v>
       </c>
@@ -59946,10 +59942,10 @@
         <v>1968</v>
       </c>
       <c r="C1361" s="23" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="D1361" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E1361" s="18" t="s">
         <v>19</v>
@@ -59957,12 +59953,10 @@
       <c r="F1361" s="18"/>
       <c r="H1361" s="19"/>
       <c r="I1361" s="19"/>
-      <c r="J1361" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="J1361" s="20"/>
       <c r="K1361" s="29"/>
       <c r="L1361" s="24" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="M1361" s="8" t="s">
         <v>28</v>
@@ -59974,7 +59968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1362" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1362" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="15" t="s">
         <v>15</v>
       </c>
@@ -59982,23 +59976,23 @@
         <v>1968</v>
       </c>
       <c r="C1362" s="23" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="D1362" s="15" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1362" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1362" s="18"/>
-      <c r="H1362" s="19" t="s">
-        <v>183</v>
-      </c>
+      <c r="H1362" s="19"/>
       <c r="I1362" s="19"/>
-      <c r="J1362" s="20"/>
+      <c r="J1362" s="20" t="s">
+        <v>3323</v>
+      </c>
       <c r="K1362" s="29"/>
       <c r="L1362" s="24" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="M1362" s="8" t="s">
         <v>28</v>
@@ -60018,7 +60012,7 @@
         <v>1968</v>
       </c>
       <c r="C1363" s="23" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="D1363" s="15" t="s">
         <v>18</v>
@@ -60032,7 +60026,7 @@
       <c r="J1363" s="20"/>
       <c r="K1363" s="29"/>
       <c r="L1363" s="24" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="M1363" s="8" t="s">
         <v>28</v>
@@ -60044,7 +60038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1364" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1364" s="15" t="s">
         <v>15</v>
       </c>
@@ -60052,23 +60046,24 @@
         <v>1968</v>
       </c>
       <c r="C1364" s="23" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="D1364" s="15" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E1364" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1364" s="18"/>
-      <c r="H1364" s="19"/>
-      <c r="I1364" s="19"/>
-      <c r="J1364" s="20" t="s">
-        <v>3325</v>
-      </c>
+      <c r="G1364" s="29" t="s">
+        <v>3328</v>
+      </c>
+      <c r="H1364" s="8"/>
+      <c r="I1364" s="8"/>
+      <c r="J1364" s="20"/>
       <c r="K1364" s="29"/>
       <c r="L1364" s="24" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="M1364" s="8" t="s">
         <v>28</v>
@@ -60080,7 +60075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1365" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1365" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1365" s="15" t="s">
         <v>15</v>
       </c>
@@ -60088,21 +60083,28 @@
         <v>1968</v>
       </c>
       <c r="C1365" s="23" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="D1365" s="15" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E1365" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1365" s="18"/>
-      <c r="H1365" s="19"/>
-      <c r="I1365" s="19"/>
-      <c r="J1365" s="20"/>
-      <c r="K1365" s="29"/>
+      <c r="G1365" s="29" t="s">
+        <v>3331</v>
+      </c>
+      <c r="H1365" s="5"/>
+      <c r="I1365" s="5"/>
+      <c r="J1365" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="K1365" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="L1365" s="24" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="M1365" s="8" t="s">
         <v>28</v>
@@ -60114,32 +60116,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1366" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B1366" s="16" t="n">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="C1366" s="23" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="D1366" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1366" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1366" s="18"/>
-      <c r="G1366" s="29" t="s">
-        <v>3330</v>
-      </c>
-      <c r="H1366" s="8"/>
-      <c r="I1366" s="8"/>
+      <c r="H1366" s="19"/>
+      <c r="I1366" s="19"/>
       <c r="J1366" s="20"/>
       <c r="K1366" s="29"/>
-      <c r="L1366" s="24" t="s">
-        <v>3331</v>
+      <c r="L1366" s="22" t="s">
+        <v>3334</v>
       </c>
       <c r="M1366" s="8" t="s">
         <v>28</v>
@@ -60152,35 +60151,32 @@
       </c>
     </row>
     <row r="1367" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1367" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1367" s="16" t="n">
+      <c r="A1367" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1367" s="40" t="n">
         <v>1968</v>
       </c>
-      <c r="C1367" s="23" t="s">
-        <v>3332</v>
-      </c>
-      <c r="D1367" s="15" t="s">
+      <c r="C1367" s="44" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1367" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E1367" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1367" s="18"/>
-      <c r="G1367" s="29" t="s">
-        <v>3333</v>
-      </c>
       <c r="H1367" s="5"/>
       <c r="I1367" s="5"/>
-      <c r="J1367" s="20" t="s">
+      <c r="J1367" s="5" t="s">
         <v>674</v>
       </c>
       <c r="K1367" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="L1367" s="24" t="s">
-        <v>3334</v>
+      <c r="L1367" s="43" t="s">
+        <v>3336</v>
       </c>
       <c r="M1367" s="8" t="s">
         <v>28</v>
@@ -60192,105 +60188,105 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1368" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1368" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1368" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1368" s="16" t="n">
-        <v>1951</v>
+      <c r="B1368" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="C1368" s="23" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="D1368" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1368" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1368" s="18"/>
+      <c r="H1368" s="29"/>
+      <c r="I1368" s="29"/>
+      <c r="J1368" s="20" t="s">
+        <v>3338</v>
+      </c>
+      <c r="K1368" s="29" t="s">
+        <v>3339</v>
+      </c>
+      <c r="L1368" s="24" t="s">
+        <v>3340</v>
+      </c>
+      <c r="M1368" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1368" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1368" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1369" s="16" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C1369" s="23" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D1369" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1369" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1369" s="18"/>
+      <c r="H1369" s="19" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1369" s="19"/>
+      <c r="J1369" s="20"/>
+      <c r="K1369" s="29"/>
+      <c r="L1369" s="24" t="s">
+        <v>3343</v>
+      </c>
+      <c r="M1369" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1369" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1369" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1370" s="16" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C1370" s="23" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D1370" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1368" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1368" s="18"/>
-      <c r="H1368" s="19"/>
-      <c r="I1368" s="19"/>
-      <c r="J1368" s="20"/>
-      <c r="K1368" s="29"/>
-      <c r="L1368" s="22" t="s">
-        <v>3336</v>
-      </c>
-      <c r="M1368" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1368" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1368" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1369" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1369" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1369" s="40" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C1369" s="44" t="s">
-        <v>3337</v>
-      </c>
-      <c r="D1369" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1369" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1369" s="18"/>
-      <c r="H1369" s="5"/>
-      <c r="I1369" s="5"/>
-      <c r="J1369" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="K1369" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1369" s="43" t="s">
-        <v>3338</v>
-      </c>
-      <c r="M1369" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1369" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1369" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1370" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1370" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1370" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1370" s="23" t="s">
-        <v>3339</v>
-      </c>
-      <c r="D1370" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="E1370" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1370" s="18"/>
-      <c r="H1370" s="29"/>
-      <c r="I1370" s="29"/>
+      <c r="H1370" s="19"/>
+      <c r="I1370" s="19"/>
       <c r="J1370" s="20" t="s">
-        <v>3340</v>
-      </c>
-      <c r="K1370" s="29" t="s">
-        <v>3341</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1370" s="29"/>
       <c r="L1370" s="24" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="M1370" s="8" t="s">
         <v>28</v>
@@ -60302,7 +60298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1371" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1371" s="15" t="s">
         <v>30</v>
       </c>
@@ -60310,23 +60306,23 @@
         <v>1968</v>
       </c>
       <c r="C1371" s="23" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="D1371" s="15" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E1371" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1371" s="18"/>
       <c r="H1371" s="19" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="I1371" s="19"/>
       <c r="J1371" s="20"/>
       <c r="K1371" s="29"/>
       <c r="L1371" s="24" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="M1371" s="8" t="s">
         <v>28</v>
@@ -60338,7 +60334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1372" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1372" s="15" t="s">
         <v>30</v>
       </c>
@@ -60346,7 +60342,7 @@
         <v>1968</v>
       </c>
       <c r="C1372" s="23" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="D1372" s="15" t="s">
         <v>26</v>
@@ -60355,14 +60351,14 @@
         <v>19</v>
       </c>
       <c r="F1372" s="18"/>
-      <c r="H1372" s="19"/>
+      <c r="H1372" s="19" t="s">
+        <v>3350</v>
+      </c>
       <c r="I1372" s="19"/>
-      <c r="J1372" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="J1372" s="20"/>
       <c r="K1372" s="29"/>
       <c r="L1372" s="24" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="M1372" s="8" t="s">
         <v>28</v>
@@ -60374,7 +60370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1373" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1373" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1373" s="15" t="s">
         <v>30</v>
       </c>
@@ -60382,7 +60378,7 @@
         <v>1968</v>
       </c>
       <c r="C1373" s="23" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="D1373" s="15" t="s">
         <v>26</v>
@@ -60392,13 +60388,13 @@
       </c>
       <c r="F1373" s="18"/>
       <c r="H1373" s="19" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="I1373" s="19"/>
       <c r="J1373" s="20"/>
       <c r="K1373" s="29"/>
       <c r="L1373" s="24" t="s">
-        <v>3350</v>
+        <v>3354</v>
       </c>
       <c r="M1373" s="8" t="s">
         <v>28</v>
@@ -60410,32 +60406,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1374" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1374" s="15" t="s">
+    <row r="1374" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B1374" s="16" t="n">
+      <c r="B1374" s="49" t="n">
         <v>1968</v>
       </c>
       <c r="C1374" s="23" t="s">
-        <v>3351</v>
-      </c>
-      <c r="D1374" s="15" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D1374" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E1374" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1374" s="18"/>
-      <c r="H1374" s="19" t="s">
-        <v>3352</v>
-      </c>
-      <c r="I1374" s="19"/>
-      <c r="J1374" s="20"/>
-      <c r="K1374" s="29"/>
-      <c r="L1374" s="24" t="s">
-        <v>3353</v>
-      </c>
+      <c r="E1374" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1374" s="51"/>
+      <c r="G1374" s="52"/>
+      <c r="H1374" s="67"/>
+      <c r="I1374" s="67"/>
+      <c r="J1374" s="53"/>
+      <c r="K1374" s="68"/>
+      <c r="L1374" s="69"/>
       <c r="M1374" s="8" t="s">
         <v>28</v>
       </c>
@@ -60446,65 +60439,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1375" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1375" s="15" t="s">
+    <row r="1375" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B1375" s="16" t="n">
+      <c r="B1375" s="49" t="n">
         <v>1968</v>
       </c>
-      <c r="C1375" s="23" t="s">
-        <v>3354</v>
-      </c>
-      <c r="D1375" s="15" t="s">
+      <c r="C1375" s="50" t="s">
+        <v>3356</v>
+      </c>
+      <c r="D1375" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1375" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1375" s="51"/>
+      <c r="G1375" s="52"/>
+      <c r="H1375" s="67"/>
+      <c r="I1375" s="67"/>
+      <c r="J1375" s="53"/>
+      <c r="K1375" s="68"/>
+      <c r="L1375" s="69" t="s">
+        <v>3357</v>
+      </c>
+      <c r="M1375" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1375" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1375" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1376" s="8" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1376" s="16" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C1376" s="23" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D1376" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1375" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1375" s="18"/>
-      <c r="H1375" s="19" t="s">
-        <v>3355</v>
-      </c>
-      <c r="I1375" s="19"/>
-      <c r="J1375" s="20"/>
-      <c r="K1375" s="29"/>
-      <c r="L1375" s="24" t="s">
-        <v>3356</v>
-      </c>
-      <c r="M1375" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1375" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1375" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1376" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1376" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1376" s="49" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C1376" s="23" t="s">
-        <v>3357</v>
-      </c>
-      <c r="D1376" s="48" t="s">
-        <v>26</v>
-      </c>
       <c r="E1376" s="51" t="s">
         <v>19</v>
       </c>
       <c r="F1376" s="51"/>
-      <c r="G1376" s="52"/>
-      <c r="H1376" s="67"/>
-      <c r="I1376" s="67"/>
+      <c r="G1376" s="67" t="s">
+        <v>3359</v>
+      </c>
+      <c r="H1376" s="52"/>
+      <c r="I1376" s="52"/>
       <c r="J1376" s="53"/>
-      <c r="K1376" s="68"/>
-      <c r="L1376" s="69"/>
+      <c r="K1376" s="68" t="s">
+        <v>3360</v>
+      </c>
+      <c r="L1376" s="24" t="s">
+        <v>3361</v>
+      </c>
       <c r="M1376" s="8" t="s">
         <v>28</v>
       </c>
@@ -60514,99 +60512,31 @@
       <c r="O1376" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="P1376" s="56"/>
     </row>
     <row r="1377" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1377" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1377" s="49" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C1377" s="50" t="s">
-        <v>3358</v>
-      </c>
-      <c r="D1377" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1377" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1377" s="51"/>
-      <c r="G1377" s="52"/>
-      <c r="H1377" s="67"/>
-      <c r="I1377" s="67"/>
-      <c r="J1377" s="53"/>
-      <c r="K1377" s="68"/>
-      <c r="L1377" s="69" t="s">
-        <v>3359</v>
-      </c>
-      <c r="M1377" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1377" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1377" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1378" s="8" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1378" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1378" s="16" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C1378" s="23" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D1378" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1378" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1378" s="51"/>
-      <c r="G1378" s="67" t="s">
-        <v>3361</v>
-      </c>
-      <c r="H1378" s="52"/>
-      <c r="I1378" s="52"/>
-      <c r="J1378" s="53"/>
-      <c r="K1378" s="68" t="s">
-        <v>3362</v>
-      </c>
-      <c r="L1378" s="24" t="s">
-        <v>3363</v>
-      </c>
-      <c r="M1378" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1378" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1378" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1378" s="56"/>
+      <c r="E1377" s="70"/>
+      <c r="F1377" s="71"/>
+      <c r="G1377" s="72"/>
+      <c r="H1377" s="73"/>
+      <c r="I1377" s="73"/>
+      <c r="J1377" s="74"/>
+      <c r="K1377" s="73"/>
+    </row>
+    <row r="1378" customFormat="false" ht="8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1378" s="75"/>
+      <c r="F1378" s="76"/>
+      <c r="G1378" s="77"/>
+      <c r="H1378" s="77"/>
+      <c r="I1378" s="77"/>
+      <c r="J1378" s="78"/>
+      <c r="K1378" s="77"/>
     </row>
     <row r="1379" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1379" s="70"/>
-      <c r="F1379" s="71"/>
-      <c r="G1379" s="72"/>
-      <c r="H1379" s="73"/>
-      <c r="I1379" s="73"/>
-      <c r="J1379" s="74"/>
-      <c r="K1379" s="73"/>
-    </row>
-    <row r="1380" customFormat="false" ht="8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1380" s="75"/>
-      <c r="F1380" s="76"/>
-      <c r="G1380" s="77"/>
-      <c r="H1380" s="77"/>
-      <c r="I1380" s="77"/>
-      <c r="J1380" s="78"/>
-      <c r="K1380" s="77"/>
+      <c r="G1379" s="28"/>
+    </row>
+    <row r="1380" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1380" s="28"/>
     </row>
     <row r="1381" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1381" s="28"/>
@@ -60674,15 +60604,11 @@
     <row r="1402" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1402" s="28"/>
     </row>
-    <row r="1403" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1403" s="28"/>
-    </row>
-    <row r="1404" customFormat="false" ht="7.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1404" s="28"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J330 J332:J997 J999:J1377" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J330 J332:J997 J999:J1375" type="list">
       <formula1>Schadensbild</formula1>
       <formula2>0</formula2>
     </dataValidation>
